--- a/fun.xlsx
+++ b/fun.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>петро</t>
+    <t>цйа</t>
   </si>
   <si>
-    <t>васильков</t>
-  </si>
-  <si>
-    <t>пг</t>
-  </si>
-  <si>
-    <t>иван</t>
-  </si>
-  <si>
-    <t>барахты</t>
-  </si>
-  <si>
-    <t>ок</t>
+    <t>іа</t>
   </si>
 </sst>
 </file>
@@ -368,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,27 +364,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/fun.xlsx
+++ b/fun.xlsx
@@ -14,12 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>цйа</t>
-  </si>
-  <si>
-    <t>іа</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Иванов </t>
+  </si>
+  <si>
+    <t>Васильков</t>
+  </si>
+  <si>
+    <t>Петренко</t>
+  </si>
+  <si>
+    <t>Барахты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Махно </t>
+  </si>
+  <si>
+    <t>Козятие</t>
+  </si>
+  <si>
+    <t>Степан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жорновка </t>
   </si>
 </sst>
 </file>
@@ -356,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,6 +390,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/fun.xlsx
+++ b/fun.xlsx
@@ -14,37 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t xml:space="preserve">Иванов </t>
+    <t>Іванець</t>
   </si>
   <si>
-    <t>Васильков</t>
+    <t>Васильків</t>
   </si>
   <si>
-    <t>Петренко</t>
+    <t>Кравчук</t>
   </si>
   <si>
-    <t>Барахты</t>
+    <t>2016-01-02 12:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Махно </t>
-  </si>
-  <si>
-    <t>Козятие</t>
-  </si>
-  <si>
-    <t>Степан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жорновка </t>
+    <t>Так нада</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="[hh]:mm:ss" numFmtId="165"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -74,8 +68,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -374,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,36 +378,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="E1" s="1" t="n">
+        <v>42371.50694444445</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/fun.xlsx
+++ b/fun.xlsx
@@ -14,30 +14,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>Іванець</t>
-  </si>
-  <si>
-    <t>Васильків</t>
-  </si>
-  <si>
-    <t>Кравчук</t>
-  </si>
-  <si>
-    <t>2016-01-02 12:00:00</t>
-  </si>
-  <si>
-    <t>Так нада</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>ЙЙЙ</t>
+  </si>
+  <si>
+    <t>ЦЦЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стасюк </t>
+  </si>
+  <si>
+    <t>2016-01-12 15:00:00</t>
+  </si>
+  <si>
+    <t>2016-01-12 15:10:00</t>
+  </si>
+  <si>
+    <t>УУУ</t>
+  </si>
+  <si>
+    <t>ффф</t>
+  </si>
+  <si>
+    <t>ыыы</t>
+  </si>
+  <si>
+    <t>2016-01-17 14:10:00</t>
+  </si>
+  <si>
+    <t>2016-01-17 15:10:00</t>
+  </si>
+  <si>
+    <t>ККК</t>
+  </si>
+  <si>
+    <t>Ке</t>
+  </si>
+  <si>
+    <t>ыва</t>
+  </si>
+  <si>
+    <t>2016-01-17 15:15:00</t>
+  </si>
+  <si>
+    <t>вптыы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="165"/>
+  <numFmts count="1">
+    <numFmt formatCode="[hh]:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -68,10 +97,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -370,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,15 +419,63 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>42371.50694444445</v>
-      </c>
-      <c r="F1" s="2" t="n">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>0.006944444444444444</v>
       </c>
       <c r="G1" t="s"/>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/fun.xlsx
+++ b/fun.xlsx
@@ -14,51 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>ЙЙЙ</t>
+    <t>іам</t>
   </si>
   <si>
-    <t>ЦЦЦ</t>
+    <t>Кравчук</t>
   </si>
   <si>
-    <t xml:space="preserve">Стасюк </t>
+    <t>2015-01-01 01:01:00</t>
   </si>
   <si>
-    <t>2016-01-12 15:00:00</t>
-  </si>
-  <si>
-    <t>2016-01-12 15:10:00</t>
-  </si>
-  <si>
-    <t>УУУ</t>
-  </si>
-  <si>
-    <t>ффф</t>
-  </si>
-  <si>
-    <t>ыыы</t>
-  </si>
-  <si>
-    <t>2016-01-17 14:10:00</t>
-  </si>
-  <si>
-    <t>2016-01-17 15:10:00</t>
-  </si>
-  <si>
-    <t>ККК</t>
-  </si>
-  <si>
-    <t>Ке</t>
-  </si>
-  <si>
-    <t>ыва</t>
-  </si>
-  <si>
-    <t>2016-01-17 15:15:00</t>
-  </si>
-  <si>
-    <t>вптыы</t>
+    <t>2015-01-01 01:02:00</t>
   </si>
 </sst>
 </file>
@@ -398,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,71 +378,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.0006944444444444445</v>
       </c>
       <c r="G1" t="s"/>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0.003472222222222222</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/fun.xlsx
+++ b/fun.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>іам</t>
-  </si>
-  <si>
-    <t>Кравчук</t>
-  </si>
-  <si>
-    <t>2015-01-01 01:01:00</t>
-  </si>
-  <si>
-    <t>2015-01-01 01:02:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>Івашкеич М.А.</t>
+  </si>
+  <si>
+    <t>с.Безп’ятне, вул.Садова 9</t>
+  </si>
+  <si>
+    <t>Стасюк О.А</t>
+  </si>
+  <si>
+    <t>2016-01-03 08:00:00</t>
+  </si>
+  <si>
+    <t>2016-01-03 08:20:00</t>
+  </si>
+  <si>
+    <t>Витік газу на гнучкому газопроводі до ОК</t>
   </si>
 </sst>
 </file>
@@ -378,23 +384,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.0006944444444444445</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G1" t="s"/>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
